--- a/src/test/java/Testdata/LoginData.xlsx
+++ b/src/test/java/Testdata/LoginData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t xml:space="preserve">username</t>
   </si>
@@ -32,9 +32,6 @@
   </si>
   <si>
     <t xml:space="preserve">Xento124</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Xento123</t>
   </si>
   <si>
     <t xml:space="preserve">akshayh1@l.lcl</t>
@@ -169,10 +166,10 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A8" activeCellId="0" sqref="A8"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="20.3"/>
@@ -198,24 +195,24 @@
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
+      <c r="B3" s="1" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="22.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
